--- a/critical freqqq.xlsx
+++ b/critical freqqq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PST\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B279E9E0-1FC8-42C9-AA4C-2FFEECB71D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DB315-9B8E-4495-B556-BA824D188E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="80" windowWidth="12660" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F253"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +715,7 @@
         <v>2.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1981,7 +1981,7 @@
         <v>2.5</v>
       </c>
       <c r="E89" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F89" s="1"/>
     </row>
